--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori1/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori1/123/word_level_predictions_123.xlsx
@@ -629,7 +629,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -653,59 +653,59 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected . Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" t="n">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -733,7 +733,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -757,7 +757,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6794,158 +6794,158 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
+      <c r="A123" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C123" s="2" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D123" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" t="inlineStr">
+      <c r="D123" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="F123" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="G123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
+      <c r="A124" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C124" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="D124" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
+      <c r="A125" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C125" s="2" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K125" t="b">
-        <v>1</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7285,7 +7285,7 @@
       </c>
       <c r="F132" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G132" s="2" t="b">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="L132" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7337,7 +7337,7 @@
       </c>
       <c r="F133" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G133" s="2" t="b">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9758,574 +9758,574 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" t="n">
         <v>14</v>
       </c>
-      <c r="B180" s="2" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" s="2" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D180" s="2" t="n">
+      <c r="D180" t="n">
         <v>3</v>
       </c>
-      <c r="E180" s="2" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F180" s="2" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G180" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L180" s="2" t="inlineStr">
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="A181" t="n">
         <v>14</v>
       </c>
-      <c r="B181" s="2" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" s="2" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D181" s="2" t="n">
+      <c r="D181" t="n">
         <v>4</v>
       </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L181" s="2" t="inlineStr">
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="A182" t="n">
         <v>14</v>
       </c>
-      <c r="B182" s="2" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" s="2" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D182" s="2" t="n">
+      <c r="D182" t="n">
         <v>5</v>
       </c>
-      <c r="E182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L182" s="2" t="inlineStr">
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
+      <c r="A183" t="n">
         <v>14</v>
       </c>
-      <c r="B183" s="2" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" s="2" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D183" s="2" t="n">
+      <c r="D183" t="n">
         <v>6</v>
       </c>
-      <c r="E183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L183" s="2" t="inlineStr">
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" t="n">
         <v>14</v>
       </c>
-      <c r="B184" s="2" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" s="2" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D184" s="2" t="n">
+      <c r="D184" t="n">
         <v>7</v>
       </c>
-      <c r="E184" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G184" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L184" s="2" t="inlineStr">
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K184" t="b">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
+      <c r="A185" t="n">
         <v>14</v>
       </c>
-      <c r="B185" s="2" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" s="2" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D185" s="2" t="n">
+      <c r="D185" t="n">
         <v>8</v>
       </c>
-      <c r="E185" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G185" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L185" s="2" t="inlineStr">
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G185" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
+      <c r="A186" t="n">
         <v>14</v>
       </c>
-      <c r="B186" s="2" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" s="2" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D186" s="2" t="n">
+      <c r="D186" t="n">
         <v>9</v>
       </c>
-      <c r="E186" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F186" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G186" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L186" s="2" t="inlineStr">
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G186" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K186" t="b">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="2" t="n">
+      <c r="A187" t="n">
         <v>14</v>
       </c>
-      <c r="B187" s="2" t="inlineStr">
+      <c r="B187" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C187" s="2" t="inlineStr">
+      <c r="C187" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D187" s="2" t="n">
+      <c r="D187" t="n">
         <v>10</v>
       </c>
-      <c r="E187" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F187" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G187" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H187" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I187" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J187" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K187" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L187" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G187" t="b">
+        <v>1</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I187" t="b">
+        <v>1</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K187" t="b">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="n">
+      <c r="A188" t="n">
         <v>14</v>
       </c>
-      <c r="B188" s="2" t="inlineStr">
+      <c r="B188" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C188" s="2" t="inlineStr">
+      <c r="C188" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D188" s="2" t="n">
+      <c r="D188" t="n">
         <v>11</v>
       </c>
-      <c r="E188" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F188" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G188" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H188" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I188" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J188" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K188" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L188" s="2" t="inlineStr">
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G188" t="b">
+        <v>1</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I188" t="b">
+        <v>1</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K188" t="b">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="n">
+      <c r="A189" t="n">
         <v>14</v>
       </c>
-      <c r="B189" s="2" t="inlineStr">
+      <c r="B189" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C189" s="2" t="inlineStr">
+      <c r="C189" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D189" s="2" t="n">
+      <c r="D189" t="n">
         <v>12</v>
       </c>
-      <c r="E189" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F189" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G189" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H189" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J189" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L189" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G189" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I189" t="b">
+        <v>1</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K189" t="b">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="2" t="n">
+      <c r="A190" t="n">
         <v>14</v>
       </c>
-      <c r="B190" s="2" t="inlineStr">
+      <c r="B190" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C190" s="2" t="inlineStr">
+      <c r="C190" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D190" s="2" t="n">
+      <c r="D190" t="n">
         <v>13</v>
       </c>
-      <c r="E190" s="2" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F190" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G190" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H190" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I190" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J190" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K190" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L190" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G190" t="b">
+        <v>1</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I190" t="b">
+        <v>1</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K190" t="b">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11890,262 +11890,262 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
+      <c r="A221" t="n">
         <v>18</v>
       </c>
-      <c r="B221" s="2" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C221" s="2" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D221" s="2" t="n">
+      <c r="D221" t="n">
         <v>7</v>
       </c>
-      <c r="E221" s="2" t="inlineStr">
+      <c r="E221" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F221" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" s="2" t="inlineStr">
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L221" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2" t="n">
+      <c r="A222" t="n">
         <v>18</v>
       </c>
-      <c r="B222" s="2" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C222" s="2" t="inlineStr">
+      <c r="C222" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D222" s="2" t="n">
+      <c r="D222" t="n">
         <v>8</v>
       </c>
-      <c r="E222" s="2" t="inlineStr">
+      <c r="E222" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F222" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" s="2" t="inlineStr">
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G222" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L222" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I222" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K222" t="b">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="2" t="n">
+      <c r="A223" t="n">
         <v>18</v>
       </c>
-      <c r="B223" s="2" t="inlineStr">
+      <c r="B223" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C223" s="2" t="inlineStr">
+      <c r="C223" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D223" s="2" t="n">
+      <c r="D223" t="n">
         <v>9</v>
       </c>
-      <c r="E223" s="2" t="inlineStr">
+      <c r="E223" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F223" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G223" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" s="2" t="inlineStr">
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G223" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I223" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L223" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I223" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K223" t="b">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="n">
+      <c r="A224" t="n">
         <v>18</v>
       </c>
-      <c r="B224" s="2" t="inlineStr">
+      <c r="B224" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C224" s="2" t="inlineStr">
+      <c r="C224" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D224" s="2" t="n">
+      <c r="D224" t="n">
         <v>10</v>
       </c>
-      <c r="E224" s="2" t="inlineStr">
+      <c r="E224" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F224" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" s="2" t="inlineStr">
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G224" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L224" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I224" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K224" t="b">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="2" t="n">
+      <c r="A225" t="n">
         <v>18</v>
       </c>
-      <c r="B225" s="2" t="inlineStr">
+      <c r="B225" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C225" s="2" t="inlineStr">
+      <c r="C225" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D225" s="2" t="n">
+      <c r="D225" t="n">
         <v>11</v>
       </c>
-      <c r="E225" s="2" t="inlineStr">
+      <c r="E225" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F225" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" s="2" t="inlineStr">
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G225" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L225" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I225" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K225" t="b">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori1/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori1/123/word_level_predictions_123.xlsx
@@ -629,7 +629,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -653,59 +653,59 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="A5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected . Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -733,7 +733,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -757,7 +757,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -6794,158 +6794,158 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" t="n">
         <v>9</v>
       </c>
-      <c r="B123" s="2" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C123" s="2" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D123" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" s="2" t="inlineStr">
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F123" s="2" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G123" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" s="2" t="inlineStr">
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" t="n">
         <v>9</v>
       </c>
-      <c r="B124" s="2" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C124" s="2" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D124" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E124" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F124" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" s="2" t="inlineStr">
+      <c r="D124" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" t="n">
         <v>9</v>
       </c>
-      <c r="B125" s="2" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C125" s="2" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D125" s="2" t="n">
+      <c r="D125" t="n">
         <v>2</v>
       </c>
-      <c r="E125" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F125" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G125" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L125" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -7285,7 +7285,7 @@
       </c>
       <c r="F132" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G132" s="2" t="b">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="L132" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7337,7 +7337,7 @@
       </c>
       <c r="F133" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G133" s="2" t="b">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9758,574 +9758,574 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C180" s="2" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="E180" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="F180" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G180" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" t="b">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K180" t="b">
-        <v>1</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="G180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
+      <c r="A181" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B181" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C181" s="2" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D181" t="n">
+      <c r="D181" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" t="b">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K181" t="b">
-        <v>1</v>
-      </c>
-      <c r="L181" t="inlineStr">
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
+      <c r="A182" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B182" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C182" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D182" t="n">
+      <c r="D182" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K182" t="b">
-        <v>1</v>
-      </c>
-      <c r="L182" t="inlineStr">
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
+      <c r="A183" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B183" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C183" s="2" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K183" t="b">
-        <v>1</v>
-      </c>
-      <c r="L183" t="inlineStr">
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G183" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C184" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G184" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K184" t="b">
-        <v>1</v>
-      </c>
-      <c r="L184" t="inlineStr">
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C185" s="2" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G185" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" t="b">
-        <v>1</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K185" t="b">
-        <v>1</v>
-      </c>
-      <c r="L185" t="inlineStr">
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C186" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G186" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" t="b">
-        <v>1</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K186" t="b">
-        <v>1</v>
-      </c>
-      <c r="L186" t="inlineStr">
+      <c r="E186" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G186" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="n">
+      <c r="A187" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="B187" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
+      <c r="C187" s="2" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D187" t="n">
+      <c r="D187" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G187" t="b">
-        <v>1</v>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I187" t="b">
-        <v>1</v>
-      </c>
-      <c r="J187" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K187" t="b">
-        <v>1</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E187" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F187" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G187" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H187" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I187" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J187" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K187" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L187" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="n">
+      <c r="A188" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B188" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
+      <c r="C188" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D188" t="n">
+      <c r="D188" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G188" t="b">
-        <v>1</v>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I188" t="b">
-        <v>1</v>
-      </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K188" t="b">
-        <v>1</v>
-      </c>
-      <c r="L188" t="inlineStr">
+      <c r="E188" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F188" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G188" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H188" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I188" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J188" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K188" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L188" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
+      <c r="A189" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B189" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="C189" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D189" t="n">
+      <c r="D189" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G189" t="b">
-        <v>1</v>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I189" t="b">
-        <v>1</v>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K189" t="b">
-        <v>1</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E189" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F189" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G189" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J189" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L189" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="n">
+      <c r="A190" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B190" t="inlineStr">
+      <c r="B190" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
+      <c r="C190" s="2" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D190" t="n">
+      <c r="D190" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="E190" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G190" t="b">
-        <v>1</v>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I190" t="b">
-        <v>1</v>
-      </c>
-      <c r="J190" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K190" t="b">
-        <v>1</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F190" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G190" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H190" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I190" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J190" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K190" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L190" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11890,262 +11890,262 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
+      <c r="A221" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B221" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="C221" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D221" t="n">
+      <c r="D221" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E221" t="inlineStr">
+      <c r="E221" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
+      <c r="F221" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
+      <c r="I221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L221" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B222" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E222" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F222" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
+      <c r="I222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L222" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B223" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D222" t="n">
-        <v>8</v>
-      </c>
-      <c r="E222" t="inlineStr">
+      <c r="C223" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E223" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
+      <c r="F223" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G223" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I223" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L223" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B224" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E224" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G222" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" t="inlineStr">
+      <c r="F224" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I222" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" t="inlineStr">
+      <c r="I224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L224" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B225" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E225" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F225" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K222" t="b">
-        <v>1</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>18</v>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D223" t="n">
-        <v>9</v>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G223" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I223" t="b">
-        <v>1</v>
-      </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K223" t="b">
-        <v>1</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>18</v>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D224" t="n">
-        <v>10</v>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G224" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I224" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K224" t="b">
-        <v>1</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>18</v>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D225" t="n">
-        <v>11</v>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G225" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I225" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K225" t="b">
-        <v>1</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L225" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
